--- a/Modello_Concettuale/Dizioniario_Entità_Relazioni.xlsx
+++ b/Modello_Concettuale/Dizioniario_Entità_Relazioni.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DP\Private\Università_Pegaso\Project Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DP\Private\Università_Pegaso\Project Work\Modello_Concettuale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165DD3D4-E834-4340-B0BB-2B24439DAAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6013E1-357B-45E7-8053-0DCEA241280A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F6A3E09A-82C2-4F35-B5C7-268B23B48A74}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>Entità</t>
   </si>
@@ -142,9 +142,6 @@
 Dati_Pagamento</t>
   </si>
   <si>
-    <t>Prenota</t>
-  </si>
-  <si>
     <t>Un account può avere più metodi di pagamento</t>
   </si>
   <si>
@@ -155,16 +152,6 @@
     <t>Ogni biglietto è legato a un itinerario</t>
   </si>
   <si>
-    <t>Acquista</t>
-  </si>
-  <si>
-    <t>Passeggero
-Biglietto</t>
-  </si>
-  <si>
-    <t>Ogni passeggero può acquistare più biglietti</t>
-  </si>
-  <si>
     <t>Include</t>
   </si>
   <si>
@@ -195,15 +182,6 @@
     <t>Riferisce</t>
   </si>
   <si>
-    <t>Account
-Itinerario
-Passeggero</t>
-  </si>
-  <si>
-    <t>Un account può effettuare più prenotazioni per 
-differenti passeggeri</t>
-  </si>
-  <si>
     <t>IdDatiPagamento</t>
   </si>
   <si>
@@ -229,9 +207,6 @@
   </si>
   <si>
     <t>IdAeroporto</t>
-  </si>
-  <si>
-    <t>IdDatiPagamento, Tipo, Nome, Cognome, Paese, Via, Città, CAP, NumeroCarta, DataValidita, AccountID</t>
   </si>
   <si>
     <t>IdAccount, Email, Password</t>
@@ -259,6 +234,20 @@
   </si>
   <si>
     <t>IdAeroporto, Nome, Codice, Città, Nazione</t>
+  </si>
+  <si>
+    <t>Prenota/
+Acquista</t>
+  </si>
+  <si>
+    <t>Itinerario
+Passeggero</t>
+  </si>
+  <si>
+    <t>Un passeggero può prenotare/acquistare più itinerari</t>
+  </si>
+  <si>
+    <t>IdDatiPagamento, Tipo, Nome, Cognome, Paese, Via, Città, CAP, NumeroCarta, DataValidita, IdAccount</t>
   </si>
 </sst>
 </file>
@@ -450,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -481,6 +470,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -819,7 +811,7 @@
   <dimension ref="B1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -854,10 +846,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -868,10 +860,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
@@ -882,10 +874,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
@@ -896,10 +888,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
@@ -910,10 +902,10 @@
         <v>11</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
@@ -924,10 +916,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -938,10 +930,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="46.8" x14ac:dyDescent="0.3">
@@ -952,10 +944,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -966,10 +958,10 @@
         <v>18</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -979,10 +971,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10BFDBB-573D-4D8C-B909-6A59AFCF74AC}">
-  <dimension ref="B1:E11"/>
+  <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1038,84 +1030,72 @@
         <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="2:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>50</v>
+    <row r="6" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="2:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="2:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="10"/>
+      <c r="E10" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
